--- a/黄汉乐-Zero-理财精灵开发进度表.xlsx
+++ b/黄汉乐-Zero-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,84 +343,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鑫</t>
+  </si>
+  <si>
+    <t>张鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉小东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张洪娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐富强</t>
+  </si>
+  <si>
+    <t>黄汉乐</t>
+  </si>
+  <si>
+    <t>黄汉乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄汉乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中：23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄汉乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束：29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动：0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张鑫、唐富强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鑫</t>
-  </si>
-  <si>
-    <t>张鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冉小东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张洪娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐富强</t>
-  </si>
-  <si>
-    <t>黄汉乐</t>
-  </si>
-  <si>
-    <t>黄汉乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄汉乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中：23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄汉乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束：29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未启动：0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：52</t>
+    <t>结束（待优化）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,13 +484,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -501,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -533,6 +558,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -621,7 +661,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,26 +694,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,23 +729,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -899,22 +905,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +932,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -941,7 +947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
@@ -950,12 +956,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -969,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -983,12 +989,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4">
         <v>43030</v>
@@ -997,12 +1003,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="4">
         <v>43030</v>
@@ -1011,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1042,14 +1048,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1119,19 +1125,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
+      <c r="F18" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="G18" s="4">
         <v>43026</v>
@@ -1140,32 +1146,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1179,36 +1197,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4">
         <v>43027</v>
@@ -1217,85 +1235,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F28" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
+      <c r="F29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="1" t="s">
+      <c r="G30" s="17"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="21"/>
+      <c r="H31" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I32" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="G35" s="4"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1312,24 +1342,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I38" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="8" t="s">
         <v>25</v>
       </c>
@@ -1338,10 +1371,13 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I39" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>26</v>
       </c>
@@ -1350,10 +1386,13 @@
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I40" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="8" t="s">
         <v>67</v>
       </c>
@@ -1362,10 +1401,13 @@
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I41" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1374,10 +1416,13 @@
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I42" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1386,21 +1431,24 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I43" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="4">
         <v>43030</v>
@@ -1409,12 +1457,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G46" s="4">
         <v>43028</v>
@@ -1423,12 +1471,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G47" s="4">
         <v>43027</v>
@@ -1437,12 +1485,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" s="4">
         <v>43027</v>
@@ -1451,36 +1499,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="I50" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="9"/>
       <c r="G51" s="4"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
@@ -1494,53 +1545,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
+    <row r="53" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="13"/>
       <c r="G54" s="4"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="13"/>
       <c r="G55" s="4"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="13"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G61" s="4">
         <v>43031</v>
@@ -1549,12 +1600,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G62" s="4">
         <v>43031</v>
@@ -1563,18 +1614,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64" s="4">
         <v>43028</v>
@@ -1583,12 +1634,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" s="4">
         <v>43029</v>
@@ -1597,12 +1648,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" s="4">
         <v>43030</v>
@@ -1611,12 +1662,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G67" s="4">
         <v>43030</v>
@@ -1625,29 +1676,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I69" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="4">
         <v>43028</v>
@@ -1656,18 +1710,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I71" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>46</v>
       </c>
@@ -1675,13 +1732,16 @@
         <v>14</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I72" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>47</v>
       </c>
@@ -1690,26 +1750,32 @@
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I74" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="I75" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G76" s="4">
         <v>43027</v>
@@ -1718,9 +1784,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>14</v>
@@ -1732,30 +1798,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
     </row>
-    <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
     </row>
-    <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="13" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,7 +1853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/黄汉乐-Zero-理财精灵开发进度表.xlsx
+++ b/黄汉乐-Zero-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,14 +250,6 @@
   </si>
   <si>
     <t>金额统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额宝介绍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -423,7 +415,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -555,17 +547,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -573,6 +559,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -661,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -694,9 +683,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -729,6 +735,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -905,34 +928,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" style="1" customWidth="1"/>
+    <col min="1" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -944,24 +967,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -975,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -986,15 +1009,15 @@
         <v>43026</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="4">
         <v>43030</v>
@@ -1003,12 +1026,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="4">
         <v>43030</v>
@@ -1017,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1048,19 +1071,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4">
         <v>43026</v>
@@ -1069,12 +1092,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4">
         <v>43026</v>
@@ -1083,12 +1106,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4">
         <v>43026</v>
@@ -1097,12 +1120,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4">
         <v>43026</v>
@@ -1111,12 +1134,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="4">
         <v>43026</v>
@@ -1125,19 +1148,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="4">
         <v>43026</v>
@@ -1146,49 +1169,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="12" t="s">
-        <v>77</v>
+      <c r="H19" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I19" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="12" t="s">
-        <v>77</v>
+      <c r="H20" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I20" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4">
         <v>43026</v>
@@ -1197,36 +1220,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25" s="4">
         <v>43027</v>
@@ -1235,26 +1258,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1262,566 +1285,550 @@
         <v>18</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="12" t="s">
-        <v>77</v>
+      <c r="H28" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I28" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="2:9" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>68</v>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3"/>
       <c r="G33" s="4"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="G34" s="4">
+        <v>43026</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="4">
-        <v>43026</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="13" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="I36" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="12" t="s">
-        <v>77</v>
+      <c r="H38" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I38" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I39" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="8" t="s">
-        <v>26</v>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="12" t="s">
-        <v>77</v>
+      <c r="H40" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I40" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="8" t="s">
-        <v>67</v>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I41" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="12" t="s">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="4">
+        <v>43028</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>79</v>
+        <v>29</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G45" s="4">
-        <v>43030</v>
+        <v>43027</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46" s="4">
-        <v>43028</v>
+        <v>43027</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="9"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="4">
+        <v>43029</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H47" s="10" t="s">
+      <c r="G51" s="19"/>
+      <c r="H51" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="13"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="13"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="13"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="4">
+        <v>43031</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H48" s="10" t="s">
+    <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="4">
+        <v>43031</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="9"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="13"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="13"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="13"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="1" t="s">
+    <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="4">
-        <v>43031</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G62" s="4">
-        <v>43031</v>
+        <v>43028</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="4">
+        <v>43029</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>84</v>
+        <v>40</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G64" s="4">
-        <v>43028</v>
+        <v>43030</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>83</v>
+    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="G65" s="4">
-        <v>43029</v>
+        <v>43030</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H66" s="10" t="s">
+    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="4">
+        <v>43028</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
-        <v>44</v>
+    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="I69" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
-        <v>45</v>
+    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" s="4">
+        <v>14</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="4">
+        <v>43027</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="4">
         <v>43028</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H75" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I72" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I74" s="13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I75" s="13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="4">
-        <v>43028</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-    </row>
-    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
-    </row>
-    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1853,7 +1860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
